--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-11.16909867833463</v>
+        <v>-11.16909867827381</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.04505499684117</v>
+        <v>25.04505499683207</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.58844339311977</v>
+        <v>31.58844339311806</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.90496886576036</v>
+        <v>1.904968865734325</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.45912811654627</v>
+        <v>16.45912811657492</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.54859710275016</v>
+        <v>21.54859710275959</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.27635085283136</v>
+        <v>17.27635085281727</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.98471150856019</v>
+        <v>23.98471150853961</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.01472828918613</v>
+        <v>28.01472828915714</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.71379063797533</v>
+        <v>30.71379063801898</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.22768718718876</v>
+        <v>38.22768718722582</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.87207334952782</v>
+        <v>41.87207334955487</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.17087460528298</v>
+        <v>12.17087460530299</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.95369278632793</v>
+        <v>31.95369278638545</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.82150466741282</v>
+        <v>38.82150466740577</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-5.870014208753766</v>
+        <v>-5.870014208735007</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.34895979140426</v>
+        <v>30.34895979144792</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.89366316763792</v>
+        <v>36.89366316764269</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.199337374666378</v>
+        <v>7.199337374727541</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.75748770837631</v>
+        <v>21.75748770842235</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.84772600193346</v>
+        <v>26.84772600191516</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.57500599910568</v>
+        <v>22.57500599913205</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.28660660012783</v>
+        <v>29.28660660014977</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-2.90758144977665</v>
+        <v>-2.907581449830992</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.30729259693239</v>
+        <v>33.3072925969034</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.85061459299143</v>
+        <v>39.85061459298256</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.16786482413297</v>
+        <v>10.16786482413035</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.72252710857415</v>
+        <v>24.72252710850969</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.81191892711345</v>
+        <v>29.81191892710708</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.53975664769555</v>
+        <v>25.53975664767315</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.24850438073909</v>
+        <v>32.24850438071373</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.27844930740141</v>
+        <v>36.27844930738845</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.97802355126932</v>
+        <v>38.97802355128831</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>46.49200832008025</v>
+        <v>46.49200832006388</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50.13638758352058</v>
+        <v>50.13638758349909</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.43452365030648</v>
+        <v>20.43452365023577</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.21795390403442</v>
+        <v>40.21795390402817</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.08567119266481</v>
+        <v>47.08567119271927</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.393155013385829</v>
+        <v>2.393155013354566</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.61284944737726</v>
+        <v>38.61284944731894</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>45.15748644338057</v>
+        <v>45.15748644330758</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>15.46388546163373</v>
+        <v>15.4638854616401</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.02253887645715</v>
+        <v>30.02253887647762</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.11270002094661</v>
+        <v>35.11270002094275</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>30.84006403201206</v>
+        <v>30.84006403204389</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>37.55205174748712</v>
+        <v>37.55205174749997</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.158865140033093</v>
+        <v>1.158865139965904</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.37385325854179</v>
+        <v>37.37385325850268</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>43.91717568197125</v>
+        <v>43.91717568187473</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>14.23492849251331</v>
+        <v>14.2349284924933</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.78974570963376</v>
+        <v>28.78974570957737</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.879141347981</v>
+        <v>33.87914134797918</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.60688774013774</v>
+        <v>29.60688774009306</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.31578559102504</v>
+        <v>36.31578559103277</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.34573505923938</v>
+        <v>40.34573505922517</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.04532559000577</v>
+        <v>43.0453255899994</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>50.55932300039594</v>
+        <v>50.55932300035558</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>54.20371509159283</v>
+        <v>54.20371509156532</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.50165536409181</v>
+        <v>24.50165536399268</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.28526327252009</v>
+        <v>44.28526327252225</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>51.15298114461748</v>
+        <v>51.15298114461373</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6.46024035946575</v>
+        <v>6.460240359390149</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.6800488708483</v>
+        <v>42.68004887080829</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>49.22468629569996</v>
+        <v>49.22468629567188</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>19.53158796677328</v>
+        <v>19.53158796677476</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.09039631945782</v>
+        <v>34.09039631941598</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>39.18056128813671</v>
+        <v>39.18056128809021</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.90783397452915</v>
+        <v>34.90783397452505</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>41.61997181301003</v>
+        <v>41.61997181294728</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-7.124427584345973</v>
+        <v>-7.124427584295837</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.09006507457766</v>
+        <v>29.09006507457243</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>35.63356004466552</v>
+        <v>35.633560044662</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5.950651883447698</v>
+        <v>5.950651883474414</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.50512417807081</v>
+        <v>20.50512417800146</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.59470325165127</v>
+        <v>25.5947032516307</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21.32209640572014</v>
+        <v>21.32209640564988</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.03072795087146</v>
+        <v>28.03072795085838</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.06084326260795</v>
+        <v>32.0608432626258</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.75990735551627</v>
+        <v>34.75990735550547</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.27386152251565</v>
+        <v>42.27386152250485</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.91833761026648</v>
+        <v>45.91833761025307</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>16.21662428670518</v>
+        <v>16.21662428671643</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.99982848949892</v>
+        <v>35.99982848950471</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>42.8677662765929</v>
+        <v>42.86776627664656</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-1.824472269900618</v>
+        <v>-1.824472269912441</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>34.3948407432289</v>
+        <v>34.39484074322163</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>40.93965071091034</v>
+        <v>40.93965071087748</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>11.24589132057806</v>
+        <v>11.24589132058249</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.8043547260901</v>
+        <v>25.80435472605827</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30.8947031256047</v>
+        <v>30.89470312559845</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.62162251018767</v>
+        <v>26.62162251021973</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.33349402544163</v>
+        <v>33.33349402546164</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.3171819619911</v>
+        <v>33.31718196200031</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.01709251279546</v>
+        <v>36.01709251280547</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.53308827624269</v>
+        <v>43.53308827624826</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.17836352873578</v>
+        <v>47.1783635287243</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.47277122517632</v>
+        <v>17.47277122517564</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>37.26145961156694</v>
+        <v>37.26145961161435</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>44.12956507778258</v>
+        <v>44.12956507778929</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4.726411873364462</v>
+        <v>4.7264118733872</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.94624407570725</v>
+        <v>40.94624407573112</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>47.49129582231014</v>
+        <v>47.49129582228331</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.79955309311585</v>
+        <v>17.79955309312779</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>32.35875525656311</v>
+        <v>32.35875525654514</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.44943937440714</v>
+        <v>37.4494393743993</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>33.17681095544653</v>
+        <v>33.17681095536377</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.88939735624867</v>
+        <v>39.88939735624117</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.92039276222433</v>
+        <v>43.92039276218932</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.62454899345143</v>
+        <v>46.62454899342449</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.14114204583748</v>
+        <v>54.14114204581372</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>57.78652347959567</v>
+        <v>57.78652347955042</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.07839881345662</v>
+        <v>28.07839881343957</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>47.86843389056619</v>
+        <v>47.86843389056551</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>54.73705162810929</v>
+        <v>54.73705162813328</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.5825552723086</v>
+        <v>41.58255527234919</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.28297767335666</v>
+        <v>44.28297767330834</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.79906165015168</v>
+        <v>51.79906165017089</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>55.44433001405766</v>
+        <v>55.44433001408358</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.73807248988808</v>
+        <v>25.73807248984681</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>45.52737301644085</v>
+        <v>45.5273730165135</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>52.39538390148245</v>
+        <v>52.39538390150599</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>12.99047597269966</v>
+        <v>12.9904759727141</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>49.21102861619706</v>
+        <v>49.21102861620161</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>55.7560139746329</v>
+        <v>55.75601397461391</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.06499615450164</v>
+        <v>26.0649961545055</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.62470140935184</v>
+        <v>40.6247014093283</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.71530837481114</v>
+        <v>45.71530837478897</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.44276399378011</v>
+        <v>41.44276399382718</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.1557375194375</v>
+        <v>48.1557375194566</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.18666108636196</v>
+        <v>52.18666108637674</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>54.89132919032706</v>
+        <v>54.89132919032502</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>62.40801046160438</v>
+        <v>62.40801046159893</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>66.05338500628207</v>
+        <v>66.05338500629412</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.3445951016703</v>
+        <v>36.34459510164881</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.13524232743762</v>
+        <v>56.13524232744614</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>63.00376548522447</v>
+        <v>63.00376548523902</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>45.6504798838869</v>
+        <v>45.65047988382778</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.35091851789573</v>
+        <v>48.35091851787822</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>55.86701512698598</v>
+        <v>55.8670151269205</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.51229632068432</v>
+        <v>59.51229632063566</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.80584302171589</v>
+        <v>29.80584302165439</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>49.59532120458029</v>
+        <v>49.59532120452538</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>56.4633326787746</v>
+        <v>56.46333267876755</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.05804095954581</v>
+        <v>17.05804095950636</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>53.27870768747007</v>
+        <v>53.27870768748507</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>59.82369346571638</v>
+        <v>59.82369346572286</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.13317832644397</v>
+        <v>30.13317832645364</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>44.69303852611576</v>
+        <v>44.69303852611997</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>49.78364930730086</v>
+        <v>49.7836493072929</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>45.5110136166684</v>
+        <v>45.51101361668193</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>52.22413727164157</v>
+        <v>52.22413727157257</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>56.25506537705305</v>
+        <v>56.25506537705055</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>58.9597497053734</v>
+        <v>58.9597497053036</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>66.47644360755626</v>
+        <v>66.47644360754853</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>70.12183097983066</v>
+        <v>70.12183097979701</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>40.41284529056772</v>
+        <v>40.41284529048757</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>60.20367017814831</v>
+        <v>60.20367017814956</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>67.0721939175742</v>
+        <v>67.07219391753554</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.36416793562105</v>
+        <v>37.36416793568494</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40.06408012876866</v>
+        <v>40.06408012879765</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>47.5801335078386</v>
+        <v>47.58013350787282</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>51.22549869854006</v>
+        <v>51.22549869854836</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.51939183689458</v>
+        <v>21.51939183693607</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.30846627617145</v>
+        <v>41.30846627616236</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>48.17669766715633</v>
+        <v>48.17669766715849</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>8.77290876222073</v>
+        <v>8.77290876220345</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.99308000007945</v>
+        <v>44.99308000011401</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>51.53823832248647</v>
+        <v>51.53823832245373</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.84706205277896</v>
+        <v>21.84706205286195</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.40657731244814</v>
+        <v>36.4065773125001</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.49737152137609</v>
+        <v>41.4973715214194</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>37.22438251828057</v>
+        <v>37.22438251833832</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43.9372398562265</v>
+        <v>43.93723985621343</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>47.96833379721149</v>
+        <v>47.96833379724981</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.67249168229957</v>
+        <v>50.67249168227422</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>58.18914235269065</v>
+        <v>58.18914235269133</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>61.83461371943783</v>
+        <v>61.83461371939611</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.12597445393626</v>
+        <v>32.12597445388987</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>51.91639560906255</v>
+        <v>51.91639560907085</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>58.78513925758514</v>
+        <v>58.78513925757343</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-18.57067001214555</v>
+        <v>-18.57067001216613</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.64278528984143</v>
+        <v>17.64278528984575</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.18571746800924</v>
+        <v>24.18571746803129</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-5.498601259207796</v>
+        <v>-5.498601259213366</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>9.055058772610003</v>
+        <v>9.055058772595565</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>14.14397936928835</v>
+        <v>14.14397936933974</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>9.872548393898136</v>
+        <v>9.872548393858914</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>16.58052096462225</v>
+        <v>16.58052096456279</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20.61002411743689</v>
+        <v>20.61002411738846</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.30877394774793</v>
+        <v>23.30877394778215</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.82256091048421</v>
+        <v>30.82256091046545</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.46664324210476</v>
+        <v>34.46664324210703</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>4.765961703410447</v>
+        <v>4.765961703377251</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.54817019146358</v>
+        <v>24.54817019145403</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.41535600790146</v>
+        <v>31.41535600787667</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-13.26958378675156</v>
+        <v>-13.26958378680533</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>22.94869198827782</v>
+        <v>22.94869198824019</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.49293911705185</v>
+        <v>29.49293911700081</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.2022308237729717</v>
+        <v>-0.2022308238152632</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>14.35542040615749</v>
+        <v>14.35542040616385</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.4451102720508</v>
+        <v>19.44511027204421</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.17320565566708</v>
+        <v>15.17320565573382</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>21.8844182712643</v>
+        <v>21.88441827127806</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-10.30968526532397</v>
+        <v>-10.30968526528736</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.90449039662396</v>
+        <v>25.90449039668081</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.44735617986341</v>
+        <v>32.44735617987433</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2.763762169417326</v>
+        <v>2.763762169482696</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.31792522446974</v>
+        <v>17.31792522449748</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.40676865945104</v>
+        <v>22.40676865947662</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>18.13542162786828</v>
+        <v>18.13542162782928</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.84378126676292</v>
+        <v>24.84378126677304</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.87321257094609</v>
+        <v>28.87321257092085</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.57247428855967</v>
+        <v>31.57247428852431</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.08634946963323</v>
+        <v>39.08634946960412</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>42.73042490499702</v>
+        <v>42.7304249049844</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>13.02907819046654</v>
+        <v>13.0290781904496</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.81189874369797</v>
+        <v>32.81189874371389</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.67898997383124</v>
+        <v>39.67898997379293</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-5.00694709068123</v>
+        <v>-5.006947090757855</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.212049106431</v>
+        <v>31.21204910642725</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.75622986036731</v>
+        <v>37.75622986030387</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>8.061784689511249</v>
+        <v>8.061784689534782</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.61993898972016</v>
+        <v>22.61993898974904</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.70955171248138</v>
+        <v>27.70955171247717</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>23.43773108339919</v>
+        <v>23.43773108339828</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.14933080439689</v>
+        <v>30.14933080434619</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-6.243441878705632</v>
+        <v>-6.243441878753607</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.97084785298264</v>
+        <v>29.97084785297366</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.51371406280602</v>
+        <v>36.51371406274964</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.830622619112681</v>
+        <v>6.83062261915088</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.38494060507437</v>
+        <v>21.38494060506448</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.47378785909134</v>
+        <v>26.47378785909168</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>22.20234949080307</v>
+        <v>22.20234949079079</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.91085924608276</v>
+        <v>28.91085924605854</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.94029509120585</v>
+        <v>32.94029509117367</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.63957310256583</v>
+        <v>35.63957310255139</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.15346092466691</v>
+        <v>43.15346092469419</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>46.79754918730159</v>
+        <v>46.79754918725236</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.0960066862498</v>
+        <v>17.09600668618057</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.87900489390133</v>
+        <v>36.87900489383244</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>43.74609670631312</v>
+        <v>43.74609670622819</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-0.9400649960202614</v>
+        <v>-0.940064996091543</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.27904527663068</v>
+        <v>35.27904527660498</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>41.82322645863874</v>
+        <v>41.82322645862816</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>12.12928392828976</v>
+        <v>12.12928392832693</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.68759316439687</v>
+        <v>26.68759316439721</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.77720971086003</v>
+        <v>31.77720971084252</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.5052977484286</v>
+        <v>27.50529774842587</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>34.21704759050808</v>
+        <v>34.21704759051399</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-14.52631458962001</v>
+        <v>-14.52631458965161</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.68747969022231</v>
+        <v>21.68747969020594</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.23051843348573</v>
+        <v>28.23051843348301</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.453233946555407</v>
+        <v>-1.453233946467414</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>13.10073912372595</v>
+        <v>13.10073912372879</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>18.18976979833044</v>
+        <v>18.18976979838796</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>13.9179782240782</v>
+        <v>13.9179782240948</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20.62622167965403</v>
+        <v>20.62622167968882</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.65582335519289</v>
+        <v>24.65582335524859</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.35457494327957</v>
+        <v>27.35457494330947</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.86841952111197</v>
+        <v>34.86841952113311</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.5125917728848</v>
+        <v>38.51259177291583</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8.811395670499017</v>
+        <v>8.811395670570299</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.59399017782473</v>
+        <v>28.59399017785747</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.46130188897566</v>
+        <v>35.46130188897214</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-9.224357591399418</v>
+        <v>-9.224357591442278</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.99425719069531</v>
+        <v>26.99425719064961</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.5386109024005</v>
+        <v>33.53861090238754</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3.844007345564954</v>
+        <v>3.844007345582916</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.40197164150984</v>
+        <v>18.401971641561</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>23.49177160427077</v>
+        <v>23.49177160430852</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>19.21950637258399</v>
+        <v>19.21950637260218</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.93098989772695</v>
+        <v>25.9309898977988</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.91447996545971</v>
+        <v>25.91447996550928</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.61407795987761</v>
+        <v>28.6140779599041</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.12996419738001</v>
+        <v>36.12996419735637</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.77493558506765</v>
+        <v>39.77493558503843</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.06986053011453</v>
+        <v>10.06986053016114</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.85793925466114</v>
+        <v>29.85793925467672</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.72541866982569</v>
+        <v>36.72541866982922</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-2.671493347860157</v>
+        <v>-2.671493347834918</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.54764067384669</v>
+        <v>33.54764067383851</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>40.09223622968161</v>
+        <v>40.09223622968718</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.3996490339247</v>
+        <v>10.39964903387604</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.95835215177501</v>
+        <v>24.95835215174784</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>30.04848789609778</v>
+        <v>30.04848789608902</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.77667489050636</v>
+        <v>25.77667489048579</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.48887336130704</v>
+        <v>32.48887336134194</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.51935514822767</v>
+        <v>36.5193551482288</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>39.22319852768285</v>
+        <v>39.22319852772866</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.73968205112137</v>
+        <v>46.73968205112512</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>50.38475966268484</v>
+        <v>50.38475966267415</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>20.67715212771216</v>
+        <v>20.67715212769044</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>40.46657761256122</v>
+        <v>40.46657761256133</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.33456933828872</v>
+        <v>47.33456933831874</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.17932066669314</v>
+        <v>34.17932066669177</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.87943050334982</v>
+        <v>36.87943050335857</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.39540495311351</v>
+        <v>44.39540495306553</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>48.04036945470218</v>
+        <v>48.0403694546882</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.33462919310673</v>
+        <v>18.33462919311662</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>38.12332004996315</v>
+        <v>38.12332005005558</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>44.9907048900043</v>
+        <v>44.99070489006797</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>5.592038242044644</v>
+        <v>5.592038242027478</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.81189269368988</v>
+        <v>41.81189269367157</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.3564218663935</v>
+        <v>48.35642186635985</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.66455953805634</v>
+        <v>18.66455953806578</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.22376573686577</v>
+        <v>33.22376573682688</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.31382433464696</v>
+        <v>38.31382433462547</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.04209534050326</v>
+        <v>34.04209534045074</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>40.75468092699739</v>
+        <v>40.7546809269983</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>44.78509088014166</v>
+        <v>44.78509088011779</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>47.48944612431173</v>
+        <v>47.48944612434175</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>55.0060178658679</v>
+        <v>55.00601786584993</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>58.65108859067075</v>
+        <v>58.65108859062573</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.94281583086777</v>
+        <v>28.94281583079216</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>48.73285345679712</v>
+        <v>48.73285345677052</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>55.60075060859108</v>
+        <v>55.60075060852912</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>38.24704199857788</v>
+        <v>38.24704199857492</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>40.94716807528575</v>
+        <v>40.94716807530849</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>48.46315515684616</v>
+        <v>48.46315515678693</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>52.10813248756735</v>
+        <v>52.10813248751631</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.40219645890604</v>
+        <v>22.4021964588359</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>42.19106497152611</v>
+        <v>42.19106497153327</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>49.05845039974806</v>
+        <v>49.05845039972782</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>9.659399980498186</v>
+        <v>9.659399980461693</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>45.87936851456393</v>
+        <v>45.87936851451118</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>52.42389810628926</v>
+        <v>52.42389810623754</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.73253844668104</v>
+        <v>22.73253844669002</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.29189958843326</v>
+        <v>37.29189958837335</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.38196200108077</v>
+        <v>42.38196200103825</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>38.1101416889443</v>
+        <v>38.11014168889644</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>44.82287740313202</v>
+        <v>44.82287740307756</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>48.85329189428185</v>
+        <v>48.8532918942491</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>51.55766336986189</v>
+        <v>51.55766336983847</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>59.07424774153255</v>
+        <v>59.0742477414424</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>62.71933129335266</v>
+        <v>62.71933129331014</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.01086275708771</v>
+        <v>33.01086275705645</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>52.80107804430556</v>
+        <v>52.80107804424917</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>59.66897577675277</v>
+        <v>59.66897577677766</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.96115013168448</v>
+        <v>29.96115013169631</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>32.66074978210136</v>
+        <v>32.66074978212955</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>40.1766936327497</v>
+        <v>40.17669363274037</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>43.821754952936</v>
+        <v>43.82175495291735</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14.1161653561468</v>
+        <v>14.11616535617795</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.90463013095248</v>
+        <v>33.90463013102865</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.77223545962297</v>
+        <v>40.77223545966503</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1.374687804814947</v>
+        <v>1.374687804804147</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.59416085668547</v>
+        <v>37.59416085667365</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.13886297940703</v>
+        <v>44.13886297940544</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.44684222384958</v>
+        <v>14.44684222389392</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.00585843275078</v>
+        <v>29.00585843275623</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.09610425872565</v>
+        <v>34.09610425877226</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.82393066660816</v>
+        <v>29.8239306666293</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.53640007000731</v>
+        <v>36.5364000700047</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.56698038317702</v>
+        <v>40.56698038321897</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.27082543067277</v>
+        <v>43.27082543074007</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>50.78736656916785</v>
+        <v>50.78736656912226</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>54.43253410795798</v>
+        <v>54.43253410797788</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.72441198985486</v>
+        <v>24.72441198987305</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>44.51422355035051</v>
+        <v>44.51422355036598</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>51.38234117563879</v>
+        <v>51.38234117563334</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-8.988266654010864</v>
+        <v>-8.988266654073392</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.22602481035781</v>
+        <v>27.226024810381</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.76916131421424</v>
+        <v>33.76916131423197</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>4.085723505913641</v>
+        <v>4.085723505938766</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.64009359776016</v>
+        <v>18.64009359777312</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.72929227829788</v>
+        <v>23.72929227830391</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.45729593820888</v>
+        <v>19.45729593825242</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.16586778518322</v>
+        <v>26.16586778518856</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.19563795043862</v>
+        <v>30.19563795037586</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.89471079594946</v>
+        <v>32.89471079595946</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>40.40869874304192</v>
+        <v>40.40869874301418</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>44.05292347863374</v>
+        <v>44.05292347858281</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.3516382992482</v>
+        <v>14.35163829923933</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.13463922501878</v>
+        <v>34.13463922499991</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>41.00216785718126</v>
+        <v>41.00216785714169</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-3.688109514942632</v>
+        <v>-3.68810951494104</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.53100228515793</v>
+        <v>32.53100228518851</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>39.0754536987728</v>
+        <v>39.07545369880997</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>9.381164734749198</v>
+        <v>9.381164734728962</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.93952592173107</v>
+        <v>23.93952592175915</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.02949383496516</v>
+        <v>29.02949383492957</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>24.75702387061849</v>
+        <v>24.75702387067647</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.46883567568434</v>
+        <v>31.46883567574869</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-0.7268312239774346</v>
+        <v>-0.7268312239851653</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.48818060979536</v>
+        <v>35.4881806097525</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>42.03125071060733</v>
+        <v>42.03125071062097</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>12.34853765486164</v>
+        <v>12.34853765490961</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.90341077913686</v>
+        <v>26.90341077914993</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.99253228897148</v>
+        <v>31.99253228899251</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.72061991874889</v>
+        <v>27.72061991879027</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.42957884268596</v>
+        <v>34.42957884271882</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.45927715104826</v>
+        <v>38.45927715109271</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.15886189296955</v>
+        <v>41.15886189300661</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.67293805924205</v>
+        <v>48.67293805921397</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.31715589345608</v>
+        <v>52.31715589340345</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.61520552961829</v>
+        <v>22.61520552959214</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.39881852663202</v>
+        <v>42.39881852664123</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>49.26625256401714</v>
+        <v>49.26625256400225</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>4.574977884353778</v>
+        <v>4.574977884307394</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>40.7948101161111</v>
+        <v>40.79481011610348</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>47.33919514690947</v>
+        <v>47.33919514688048</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>17.64563098697217</v>
+        <v>17.64563098695728</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.20449525412484</v>
+        <v>32.20449525411063</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>37.29438601523943</v>
+        <v>37.29438601526876</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.0220000648824</v>
+        <v>33.02200006486364</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>39.73419898415263</v>
+        <v>39.73419898412603</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3.339574458420564</v>
+        <v>3.339574458380774</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>39.55470036288127</v>
+        <v>39.55470036282897</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>46.09777088952765</v>
+        <v>46.09777088949649</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.41556041126002</v>
+        <v>16.41556041122558</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.97058846714256</v>
+        <v>30.97058846715893</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.05971379544237</v>
+        <v>36.0597137954277</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.78771009654067</v>
+        <v>31.78771009654272</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.49681913761074</v>
+        <v>38.49681913759505</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.52652198648607</v>
+        <v>42.52652198645924</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>45.22612301806762</v>
+        <v>45.22612301805921</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>52.74021182529523</v>
+        <v>52.74021182525089</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>56.38444248658904</v>
+        <v>56.38444248655994</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.68229633152159</v>
+        <v>26.68229633153</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>46.46608698241405</v>
+        <v>46.46608698241598</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>53.33352160153711</v>
+        <v>53.33352160151835</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>8.642022305928457</v>
+        <v>8.642022305872295</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>44.8619686138999</v>
+        <v>44.86196861384487</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>51.40635407196819</v>
+        <v>51.40635407195978</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.71329256329866</v>
+        <v>21.7132925631794</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>36.27231176699106</v>
+        <v>36.27231176696002</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>41.36220635117038</v>
+        <v>41.36220635113832</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>37.08972907535362</v>
+        <v>37.08972907531111</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>43.80207811678783</v>
+        <v>43.80207811676976</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-4.943610835693882</v>
+        <v>-4.94361083567842</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>31.27101961300232</v>
+        <v>31.27101961303892</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>37.81426268422697</v>
+        <v>37.81426268425016</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.131391245395342</v>
+        <v>8.131391245441954</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.68607438127517</v>
+        <v>22.68607438126141</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.77538314341714</v>
+        <v>27.77538314349797</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>23.5030262096267</v>
+        <v>23.5030262096391</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.21186894712744</v>
+        <v>30.21186894713266</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.24173763856688</v>
+        <v>34.24173763858246</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.94081223483297</v>
+        <v>36.94081223485355</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>44.45485779958735</v>
+        <v>44.45485779956643</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>48.09917245756551</v>
+        <v>48.09917245757517</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>18.39737270103367</v>
+        <v>18.39737270107016</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>38.18075965019741</v>
+        <v>38.18075965020071</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>45.0484141815846</v>
+        <v>45.04841418161302</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>0.3574171321016806</v>
+        <v>0.3574171320840591</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.57686794564736</v>
+        <v>36.57686794564963</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>43.1214259445866</v>
+        <v>43.12142594457227</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.42770338505024</v>
+        <v>13.42770338507014</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.98637764452339</v>
+        <v>27.98637764449634</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.07645565816042</v>
+        <v>33.07645565817622</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.80362508413091</v>
+        <v>28.80362508415467</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>35.51570780467366</v>
+        <v>35.51570780473426</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.49916435334253</v>
+        <v>35.49916435336663</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>38.19908543074987</v>
+        <v>38.19908543076237</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>45.715172585308</v>
+        <v>45.71517258531323</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>49.36028638448763</v>
+        <v>49.36028638452833</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.65460771221412</v>
+        <v>19.65460771218206</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>39.44347883389107</v>
+        <v>39.4434788338855</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>46.31130099112649</v>
+        <v>46.31130099113479</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>6.908095888221531</v>
+        <v>6.908095888240517</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>43.12806586979755</v>
+        <v>43.12806586981142</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>49.67286567257954</v>
+        <v>49.67286567254168</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>19.98115968153333</v>
+        <v>19.98115968150957</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.54057268082376</v>
+        <v>34.54057268081058</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>39.63098643444268</v>
+        <v>39.63098643446371</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.35860805256086</v>
+        <v>35.35860805264465</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>42.07140564279691</v>
+        <v>42.0714056428334</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.10215437823242</v>
+        <v>46.1021543782281</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>48.80632106656562</v>
+        <v>48.8063210665447</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>56.32300550165203</v>
+        <v>56.32300550166567</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>59.96822549062599</v>
+        <v>59.96822549063145</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>30.26001446561602</v>
+        <v>30.26001446565831</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>50.05023226560083</v>
+        <v>50.05023226562857</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.91856670510256</v>
+        <v>56.91856670512734</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>43.76445582181045</v>
+        <v>43.76445582175099</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>46.46488875034324</v>
+        <v>46.46488875036564</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>53.98106411755852</v>
+        <v>53.98106411755352</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>57.62617102592187</v>
+        <v>57.62617102593222</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.91982713805023</v>
+        <v>27.9198271380018</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>47.70931039841107</v>
+        <v>47.70931039839891</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>54.57703797189279</v>
+        <v>54.57703797187119</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>15.17207815319423</v>
+        <v>15.17207815317581</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>51.39276857394182</v>
+        <v>51.39276857387633</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>57.93750198551222</v>
+        <v>57.93750198545265</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.24652089650035</v>
+        <v>28.24652089653821</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.80643698627798</v>
+        <v>42.80643698625115</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.89677358458098</v>
+        <v>47.896773584572</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.62447924033452</v>
+        <v>43.62447924034588</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>50.33766395511136</v>
+        <v>50.3376639550693</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>54.36834084854538</v>
+        <v>54.36834084851764</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.0730194114765</v>
+        <v>57.07301941155597</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>64.58979206484562</v>
+        <v>64.58979206489121</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>68.23500516219977</v>
+        <v>68.23500516223399</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38.52612890342609</v>
+        <v>38.52612890343143</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>58.31695885069737</v>
+        <v>58.31695885071556</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>65.18519870788012</v>
+        <v>65.1851987078384</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>47.83233949946136</v>
+        <v>47.83233949943487</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>50.53278866436656</v>
+        <v>50.53278866434211</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>58.04897666310242</v>
+        <v>58.04897666309821</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>61.69409640051483</v>
+        <v>61.69409640048743</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.98755674030999</v>
+        <v>31.98755674027623</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>51.77721765594881</v>
+        <v>51.77721765587935</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>58.64494581735143</v>
+        <v>58.64494581734325</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>19.23960221058726</v>
+        <v>19.23960221052393</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>55.46040671471282</v>
+        <v>55.46040671465462</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>62.00514054457371</v>
+        <v>62.00514054449334</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>32.31466213473768</v>
+        <v>32.31466213460967</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>46.87473316841831</v>
+        <v>46.87473316839273</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>51.96507358121598</v>
+        <v>51.96507358117869</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>47.69268792698565</v>
+        <v>47.69268792701839</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>54.40602277018208</v>
+        <v>54.40602277023029</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>58.43670420126707</v>
+        <v>58.43670420124888</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>61.14139899106501</v>
+        <v>61.14139899102954</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>68.65818427476111</v>
+        <v>68.65818427471382</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>72.3034101990643</v>
+        <v>72.30341019899427</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>42.59433815839511</v>
+        <v>42.59433815836487</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>62.38534576645807</v>
+        <v>62.38534576649752</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>69.25358620375098</v>
+        <v>69.25358620374496</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>39.54613502553243</v>
+        <v>39.54613502552788</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.24605775143768</v>
+        <v>42.24605775145292</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>49.76220252114526</v>
+        <v>49.76220252115322</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>53.40740625554977</v>
+        <v>53.40740625559581</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>23.70121302778593</v>
+        <v>23.70121302781845</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>43.49047020389983</v>
+        <v>43.49047020395235</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>50.35841827937488</v>
+        <v>50.35841827936283</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>10.95457747223215</v>
+        <v>10.95457747221032</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>47.17488649026361</v>
+        <v>47.17488649028453</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>53.7197928622227</v>
+        <v>53.7197928622418</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.02865333258014</v>
+        <v>24.02865333260981</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.5883794292421</v>
+        <v>38.58837942931975</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>43.67890326836325</v>
+        <v>43.67890326837871</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>39.40616430483785</v>
+        <v>39.40616430482932</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>46.11923283342232</v>
+        <v>46.11923283346166</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.15008009885198</v>
+        <v>50.15008009891235</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>52.85424844790875</v>
+        <v>52.8542484479615</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>60.37099050027782</v>
+        <v>60.37099050027771</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>64.0163004192016</v>
+        <v>64.01630041917159</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>34.30757479730541</v>
+        <v>34.30757479734077</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>54.09817867709662</v>
+        <v>54.09817867710469</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>60.96663902092498</v>
+        <v>60.96663902091316</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-22.61944056321679</v>
+        <v>-22.61944056329501</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.59199945357104</v>
+        <v>13.59199945354467</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.13479277093156</v>
+        <v>20.13479277092292</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-9.548864118401958</v>
+        <v>-9.54886411841742</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>5.003627965401073</v>
+        <v>5.003627965342524</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.09243424339004</v>
+        <v>10.09243424343824</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.821342034232792</v>
+        <v>5.821342034193911</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>12.52851106255516</v>
+        <v>12.52851106254106</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.55792500180612</v>
+        <v>16.55792500172563</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.25648260656785</v>
+        <v>19.25648260660105</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.7698069316581</v>
+        <v>26.76980693166413</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.41381216264701</v>
+        <v>30.41381216261484</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>0.7148683969753833</v>
+        <v>0.7148683969556018</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.49573324952896</v>
+        <v>20.49573324953999</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.36270512620776</v>
+        <v>27.36270512617298</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-17.3176825236611</v>
+        <v>-17.31768252365507</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.89857779229569</v>
+        <v>18.89857779228034</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.44268608344978</v>
+        <v>25.44268608343534</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.251821569905793</v>
+        <v>-4.251821569867481</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.3046615486875</v>
+        <v>10.30466154870501</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.39423715227135</v>
+        <v>15.39423715234059</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.12267121682307</v>
+        <v>11.12267121687128</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>17.83308015117418</v>
+        <v>17.83308015119146</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-14.35881054289153</v>
+        <v>-14.35881054294212</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.85334980383336</v>
+        <v>21.85334980385132</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.39607673318962</v>
+        <v>28.39607673323408</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1.286855475231484</v>
+        <v>-1.286855475299241</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>13.26613960964826</v>
+        <v>13.26613960962825</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>18.35486873286495</v>
+        <v>18.35486873283778</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.08386046224953</v>
+        <v>14.08386046229784</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.79141654105128</v>
+        <v>20.79141654104446</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.82075863791729</v>
+        <v>24.82075863793309</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.51982810629672</v>
+        <v>27.51982810628513</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.03324064619405</v>
+        <v>35.03324064616029</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.67723898309887</v>
+        <v>38.67723898308079</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>8.977630070482768</v>
+        <v>8.977630070481744</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.75910696181986</v>
+        <v>28.7591069618642</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.62598425971273</v>
+        <v>35.62598425974809</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-9.055400599913106</v>
+        <v>-9.05540059993573</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.16158010800486</v>
+        <v>27.16158010803726</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.70562203135514</v>
+        <v>33.70562203135491</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.01183911133878</v>
+        <v>4.011839111312632</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.56882527824157</v>
+        <v>18.56882527827761</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.6583237458565</v>
+        <v>23.65832374588322</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>19.38684179265626</v>
+        <v>19.38684179269344</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.09763781491042</v>
+        <v>26.09763781493429</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-10.29271699988644</v>
+        <v>-10.29271699992476</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.91955741371569</v>
+        <v>25.91955741366839</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.46228477159539</v>
+        <v>32.46228477156514</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.779855109537287</v>
+        <v>2.779855109524441</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.33300512002372</v>
+        <v>17.33300511994141</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.42173806404551</v>
+        <v>22.42173806406154</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>18.15063845863951</v>
+        <v>18.15063845864872</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.85834464851555</v>
+        <v>24.85834464851543</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.88769128785272</v>
+        <v>28.88769128785682</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.58677704729896</v>
+        <v>31.58677704731851</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>39.1002022288018</v>
+        <v>39.10020222877451</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.74421339299183</v>
+        <v>42.74421339301548</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>13.04440870067869</v>
+        <v>13.04440870064709</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>32.82606324024007</v>
+        <v>32.82606324025848</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>39.69294112231332</v>
+        <v>39.69294112230764</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-4.988668373029078</v>
+        <v>-4.988668373034422</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.22842640719355</v>
+        <v>31.22842640719536</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>37.77246876053416</v>
+        <v>37.77246876053882</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.07918846076236</v>
+        <v>8.079188460777594</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.63632955818459</v>
+        <v>22.6363295581838</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.7258318510525</v>
+        <v>27.72583185107899</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.45425856663498</v>
+        <v>23.45425856666875</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.16520470484172</v>
+        <v>30.16520470485582</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-18.57527319768176</v>
+        <v>-18.57527319768528</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.63650578053025</v>
+        <v>17.63650578054105</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.17940566398274</v>
+        <v>24.17940566400662</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-5.503684907175376</v>
+        <v>-5.503684907167646</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>9.049120198671197</v>
+        <v>9.049120198658464</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>14.13803655537392</v>
+        <v>14.13803655539916</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>9.866583760073944</v>
+        <v>9.866583760183424</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>16.57402365880719</v>
+        <v>16.5740236588173</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.60353612117537</v>
+        <v>20.60353612123972</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.30209547966287</v>
+        <v>23.30209547976383</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.81547741744898</v>
+        <v>30.81547741752811</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.45957256688123</v>
+        <v>34.45957256694489</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.760114262321189</v>
+        <v>4.760114262350406</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.54136511447987</v>
+        <v>24.54136511450681</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>31.40846288536081</v>
+        <v>31.4084628853599</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-13.27264442068188</v>
+        <v>-13.27264442069177</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.94395488546106</v>
+        <v>22.94395488549596</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.48816976063826</v>
+        <v>29.4881697606568</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-0.2057715384048393</v>
+        <v>-0.2057715383724386</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>14.35102463019361</v>
+        <v>14.3510246302317</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.44071033124865</v>
+        <v>19.44071033125331</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.16878379332902</v>
+        <v>15.16878379342088</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.87946362316736</v>
+        <v>21.87946362322545</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.86305268945309</v>
+        <v>21.86305268940034</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.56245835630059</v>
+        <v>24.56245835625591</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.07788187863402</v>
+        <v>32.07788187856377</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.72277615973862</v>
+        <v>35.72277615966575</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>6.019438969612814</v>
+        <v>6.019438969549149</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.8061738120397</v>
+        <v>25.80617381203594</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.67343937862611</v>
+        <v>32.67343937862486</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-6.71968357451258</v>
+        <v>-6.719683574517013</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.49743499023364</v>
+        <v>29.49743499024091</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>36.04189169916699</v>
+        <v>36.04189169911606</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>6.349966659682899</v>
+        <v>6.349966659701089</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>20.90750166233592</v>
+        <v>20.90750166232774</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.99752312876617</v>
+        <v>25.99752312877254</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.72604878830398</v>
+        <v>21.72604878837583</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.43744357431685</v>
+        <v>28.43744357430594</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32.46783619000566</v>
+        <v>32.46783618997201</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.17148705285845</v>
+        <v>35.17148705284469</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.68750784504689</v>
+        <v>42.68750784504598</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>46.33250835466938</v>
+        <v>46.33250835465312</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.62663875080741</v>
+        <v>16.62663875081082</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.41472032936158</v>
+        <v>36.41472032938636</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.28249819057523</v>
+        <v>43.28249819060979</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>30.12753852770802</v>
+        <v>30.12753852773337</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>32.82745601288777</v>
+        <v>32.82745601294985</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>40.34296774403824</v>
+        <v>40.3429677440005</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>43.98785514155193</v>
+        <v>43.9878551415833</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.28385277298096</v>
+        <v>14.28385277299187</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>34.07119972170542</v>
+        <v>34.0711997217003</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.93837072081353</v>
+        <v>40.93837072078636</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1.543493221303969</v>
+        <v>1.543493221307607</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.76133218620239</v>
+        <v>37.76133218616919</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.30572251888682</v>
+        <v>44.30572251886999</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>14.61452231058697</v>
+        <v>14.61452231057128</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.17256037195968</v>
+        <v>29.17256037198469</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>34.26250469880838</v>
+        <v>34.26250469879928</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.99111436474802</v>
+        <v>29.99111436480896</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.70289624871636</v>
+        <v>36.70289624874717</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>40.73321703689955</v>
+        <v>40.73321703694128</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>43.43737974112141</v>
+        <v>43.43737974117848</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>50.95348874814808</v>
+        <v>50.95348874816434</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>54.5984823733859</v>
+        <v>54.59848237336691</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.89194757285215</v>
+        <v>24.89194757280691</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>44.68064126634933</v>
+        <v>44.68064126637253</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>51.5483245611339</v>
+        <v>51.54832456116062</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.19510996483907</v>
+        <v>34.1951099648169</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.89504368776502</v>
+        <v>36.89504368770204</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>44.4105680508118</v>
+        <v>44.410568050816</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.05546827749188</v>
+        <v>48.05546827745516</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.35127014873901</v>
+        <v>18.35127014867546</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.1387947469407</v>
+        <v>38.13879474689704</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>45.00596633624914</v>
+        <v>45.00596633623584</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>5.610705078124305</v>
+        <v>5.61070507808747</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.82865812230252</v>
+        <v>41.82865812227478</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.37304887590258</v>
+        <v>48.37304887590053</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>18.6823513158454</v>
+        <v>18.68235131581709</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.24054431513596</v>
+        <v>33.24054431516245</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.33049245891211</v>
+        <v>38.33049245891689</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.05901080866695</v>
+        <v>34.05901080868048</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>40.77094281495138</v>
+        <v>40.77094281489953</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>44.80126814280143</v>
+        <v>44.80126814276016</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>47.50544707540077</v>
+        <v>47.50544707536167</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>55.0215687130649</v>
+        <v>55.02156871307661</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>58.66657516547755</v>
+        <v>58.66657516543105</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.95984459522767</v>
+        <v>28.95984459514957</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>48.74871594384162</v>
+        <v>48.74871594384003</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>55.6163998212435</v>
+        <v>55.61639982120041</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.90953470168474</v>
+        <v>25.9095347017608</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.60894202023407</v>
+        <v>28.60894202032537</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.12442315305147</v>
+        <v>36.12442315307853</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.76940736523706</v>
+        <v>39.76940736528811</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.06555565801877</v>
+        <v>10.0655556579575</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.85267653120015</v>
+        <v>29.8526765311881</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.7200680108423</v>
+        <v>36.72006801088767</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-2.673690542069473</v>
+        <v>-2.673690542037072</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>33.54376703642119</v>
+        <v>33.54376703645803</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.08833031325414</v>
+        <v>40.08833031326392</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>10.39697168493731</v>
+        <v>10.39697168500472</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>24.95481976225212</v>
+        <v>24.95481976236183</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.04495131118338</v>
+        <v>30.04495131118565</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.7731163968248</v>
+        <v>25.77311639686504</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>32.48478210072701</v>
+        <v>32.48478210078567</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.51527324340977</v>
+        <v>36.5152732434798</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.21892576977771</v>
+        <v>39.21892576984023</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>46.73500417498851</v>
+        <v>46.73500417500215</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>50.3800946101534</v>
+        <v>50.38009461018864</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>20.67371044797394</v>
+        <v>20.67371044795131</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>40.46217808254928</v>
+        <v>40.46217808250199</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>47.3300818430288</v>
+        <v>47.3300818430537</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-7.421961802116222</v>
+        <v>-7.421961802176021</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.79156863658161</v>
+        <v>28.79156863659343</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.33473768212516</v>
+        <v>35.33473768209139</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.652480699104125</v>
+        <v>5.652480699126066</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.20645813945216</v>
+        <v>20.2064581394533</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.29574534678365</v>
+        <v>25.29574534686403</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>21.02358959132905</v>
+        <v>21.02358959137839</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>27.73191689919238</v>
+        <v>27.7319168991776</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.76178360806878</v>
+        <v>31.7617836081147</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.46079968689266</v>
+        <v>34.46079968692711</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>41.97458569303492</v>
+        <v>41.97458569302787</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>45.61884292803008</v>
+        <v>45.61884292801292</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>15.91820935942896</v>
+        <v>15.91820935943397</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>35.70073104335486</v>
+        <v>35.70073104334997</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.56833232824524</v>
+        <v>42.56833232826082</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-2.123588789785551</v>
+        <v>-2.123588789829888</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.09476182371295</v>
+        <v>34.09476182373182</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.6392457699666</v>
+        <v>40.63924576998172</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.9461378122975</v>
+        <v>10.94613781234093</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.50410620705056</v>
+        <v>25.50410620706204</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.5941626502288</v>
+        <v>30.59416265026984</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.32153320299553</v>
+        <v>26.32153320302202</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.03310034901724</v>
+        <v>33.03310034902679</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>0.839421980235123</v>
+        <v>0.8394219802325082</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.05367277536438</v>
+        <v>37.05367277538223</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>43.59677541985118</v>
+        <v>43.59677541984515</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>13.91524318577162</v>
+        <v>13.91524318573138</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.46972364921</v>
+        <v>28.46972364918329</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.55893368800653</v>
+        <v>33.55893368799845</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.28686190549026</v>
+        <v>29.28686190550413</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>35.99557628258449</v>
+        <v>35.9955762825904</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>40.02537113665758</v>
+        <v>40.02537113665962</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>42.7248991024144</v>
+        <v>42.724899102426</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>50.2387733253769</v>
+        <v>50.23877332539066</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>53.88302365982749</v>
+        <v>53.88302365982442</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>24.18172491846988</v>
+        <v>24.18172491840621</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.96485866123762</v>
+        <v>43.96485866123285</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>50.83236535356982</v>
+        <v>50.83236535357505</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>6.139446936162948</v>
+        <v>6.139446936126681</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>42.35851796820796</v>
+        <v>42.35851796818999</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>48.90293553377719</v>
+        <v>48.90293553379549</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>19.21055237722432</v>
+        <v>19.21055237722319</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.76902384249333</v>
+        <v>33.76902384250254</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>38.85900313599804</v>
+        <v>38.85900313597724</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>34.58645770566275</v>
+        <v>34.58645770561204</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>41.29841195817576</v>
+        <v>41.29841195817848</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>4.905784552279464</v>
+        <v>4.905784552260592</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>41.12014941686939</v>
+        <v>41.12014941685711</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>47.66325248800879</v>
+        <v>47.66325248799173</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>17.98222282180134</v>
+        <v>17.98222282177598</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.53685821431272</v>
+        <v>32.53685821431556</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>37.62607207220835</v>
+        <v>37.62607207217652</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.35390896505921</v>
+        <v>33.35390896501681</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.06277345657806</v>
+        <v>40.06277345662559</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.09257285150377</v>
+        <v>44.09257285147114</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>46.79211710516156</v>
+        <v>46.79211710511279</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>54.30600396917136</v>
+        <v>54.30600396914135</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>57.95026713096254</v>
+        <v>57.95026713090581</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.24877259962843</v>
+        <v>28.24877259961138</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>48.03208399314249</v>
+        <v>48.03208399314521</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>54.89959126811325</v>
+        <v>54.89959126813121</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>10.20644825094237</v>
+        <v>10.20644825087631</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>46.4256333581575</v>
+        <v>46.42563335800278</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>52.97005135183965</v>
+        <v>52.97005135173176</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>23.27817083688742</v>
+        <v>23.27817083689083</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>37.83679723630134</v>
+        <v>37.83679723625757</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.92678035327301</v>
+        <v>42.92678035328222</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.65414360135949</v>
+        <v>38.65414360137597</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>45.36624797336369</v>
+        <v>45.3662479734045</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-3.377339575518569</v>
+        <v>-3.377339575493103</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.83652984112987</v>
+        <v>32.83652984117602</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>39.37980545588587</v>
+        <v>39.37980545591486</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.698114830968755</v>
+        <v>9.698114830936241</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.25240530927012</v>
+        <v>24.25240530926842</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.3418025998325</v>
+        <v>29.34180259984625</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.06928625831622</v>
+        <v>25.06928625828257</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.77788445082674</v>
+        <v>31.77788445084595</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.8078496874049</v>
+        <v>35.80784968743048</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>38.50686751289529</v>
+        <v>38.50686751290348</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.02071113562445</v>
+        <v>46.02071113559898</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>49.66505829339965</v>
+        <v>49.66505829336599</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>19.9639101550712</v>
+        <v>19.96391015504471</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>39.74681785355167</v>
+        <v>39.74681785357804</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>46.61454503983273</v>
+        <v>46.6145450398749</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1.921904266344676</v>
+        <v>1.921904266319892</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>38.14059388679075</v>
+        <v>38.14059388682679</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>44.68518442028303</v>
+        <v>44.68518442032248</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.99264285670724</v>
+        <v>14.99264285672532</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.55092431741755</v>
+        <v>29.55092431742744</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.64109086274041</v>
+        <v>34.64109086275405</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>30.36810081327078</v>
+        <v>30.36810081325839</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>37.07993886887802</v>
+        <v>37.07993886887223</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>37.06352557729976</v>
+        <v>37.06352557733967</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>39.76338988766704</v>
+        <v>39.76338988770694</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>47.27927503819969</v>
+        <v>47.27927503816468</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>50.9244213312651</v>
+        <v>50.92442133121417</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.21939437651465</v>
+        <v>21.21939437651067</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>41.00778609671922</v>
+        <v>41.00778609674185</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>47.87568090048287</v>
+        <v>47.87568090049378</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>8.472364986454657</v>
+        <v>8.472364986474894</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>44.69157376945022</v>
+        <v>44.69157376946068</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>51.23640608203029</v>
+        <v>51.23640608199778</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.54588115606511</v>
+        <v>21.54588115608865</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.10490134307636</v>
+        <v>36.10490134311274</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>41.19540360370424</v>
+        <v>41.19540360373073</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.92286573184654</v>
+        <v>36.92286573197693</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>43.63541864352432</v>
+        <v>43.63541864355081</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>47.66626390886213</v>
+        <v>47.66626390890828</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.37037383076031</v>
+        <v>50.37037383076417</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>57.88685625526559</v>
+        <v>57.88685625524899</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>61.5321087265037</v>
+        <v>61.53210872652939</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.8245494738318</v>
+        <v>31.82454947386898</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>51.61428784412717</v>
+        <v>51.61428784417947</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>58.48269490998009</v>
+        <v>58.48269490998316</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>45.32876534831703</v>
+        <v>45.32876534836341</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.02914150034328</v>
+        <v>48.02914150035067</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>55.5451148614849</v>
+        <v>55.54511486150457</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>59.19025426473413</v>
+        <v>59.19025426472958</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.48456210517238</v>
+        <v>29.48456210511463</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>49.27356595190181</v>
+        <v>49.2735659519192</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>56.14136617432577</v>
+        <v>56.14136617433612</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>16.73629556515268</v>
+        <v>16.73629556511118</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>52.95622477395366</v>
+        <v>52.95622477399379</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>59.50099069749924</v>
+        <v>59.5009906974997</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.81119067040154</v>
+        <v>29.8111906703547</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>44.37071393852377</v>
+        <v>44.37071393856254</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>49.46113904617155</v>
+        <v>49.46113904618735</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.18868521505421</v>
+        <v>45.18868521503966</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>51.90162524344671</v>
+        <v>51.90162524341965</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.9323986689574</v>
+        <v>55.93239866892852</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>58.63702045504206</v>
+        <v>58.63702045506445</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>66.15359109640443</v>
+        <v>66.15359109641852</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>69.79883667685877</v>
+        <v>69.79883667687002</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>40.09061220131539</v>
+        <v>40.09061220130629</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>59.8809627069659</v>
+        <v>59.88096270699761</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>66.74927519277585</v>
+        <v>66.74927519279393</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>49.39660590936935</v>
+        <v>49.39660590938208</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>52.09699829547119</v>
+        <v>52.09699829546107</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>59.61298428837895</v>
+        <v>59.61298428842078</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>63.25813652089939</v>
+        <v>63.25813652086585</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.55224859087584</v>
+        <v>33.55224859083457</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>53.34143008963363</v>
+        <v>53.34143008970513</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>60.20923090072088</v>
+        <v>60.20923090070769</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.80377650785911</v>
+        <v>20.80377650778328</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>57.02381979896531</v>
+        <v>57.02381979889847</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>63.56858614163152</v>
+        <v>63.56858614154023</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>33.87928878408209</v>
+        <v>33.8792887840681</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>48.43896699365998</v>
+        <v>48.4389669936909</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>53.52939591597183</v>
+        <v>53.52939591600082</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>49.25685077867117</v>
+        <v>49.25685077870971</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>55.96994093317382</v>
+        <v>55.96994093315256</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>60.00071889660264</v>
+        <v>60.00071889663288</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>62.70535690796842</v>
+        <v>62.7053569080148</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>70.2219401794903</v>
+        <v>70.22194017954124</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>73.86719858723282</v>
+        <v>73.86719858728557</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>44.15877833158881</v>
+        <v>44.15877833158961</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>63.94930649500431</v>
+        <v>63.94930649498249</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>70.8176195617323</v>
+        <v>70.81761956169058</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.11046264196275</v>
+        <v>41.11046264196025</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>43.81032859674101</v>
+        <v>43.81032859678273</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>51.32627136161775</v>
+        <v>51.32627136164685</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>54.97150759047158</v>
+        <v>54.97150759049716</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.26596608700734</v>
+        <v>25.26596608706986</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.05474385313416</v>
+        <v>45.05474385323819</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>51.92276457722689</v>
+        <v>51.92276457728851</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.5188129652046</v>
+        <v>12.51881296519334</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>48.73836077775379</v>
+        <v>48.73836077778653</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>55.28329966152628</v>
+        <v>55.28329966153526</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.59334118619918</v>
+        <v>25.59334118616371</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>40.15267446442922</v>
+        <v>40.15267446443377</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.24328681208387</v>
+        <v>45.24328681207933</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>40.97038836611969</v>
+        <v>40.9703883661871</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.68321221045223</v>
+        <v>47.68321221046588</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>51.71415600730872</v>
+        <v>51.71415600731407</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>54.41826758512209</v>
+        <v>54.41826758512902</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>61.93480762662207</v>
+        <v>61.93480762666345</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>65.58015002829487</v>
+        <v>65.58015002829839</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>35.87207618563027</v>
+        <v>35.8720761855848</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>55.66220062729248</v>
+        <v>55.66220062729567</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>62.53073359955729</v>
+        <v>62.53073359956547</v>
       </c>
     </row>
   </sheetData>
